--- a/NformTester/NformTester/keywordscripts/TST762_CheckGUIOfPeriodComboBoxes.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST762_CheckGUIOfPeriodComboBoxes.xlsx
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7206" uniqueCount="845">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3804,10 +3804,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4364,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4377,7 +4387,8 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4546,7 +4557,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4593,9 +4604,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>841</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4613,10 +4624,10 @@
         <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>83</v>
@@ -4632,11 +4643,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4656,8 +4665,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4683,10 +4696,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4713,7 +4724,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4732,7 +4743,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4744,7 +4755,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4773,7 +4784,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4802,7 +4813,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4831,7 +4842,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4859,10 +4870,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4890,7 +4901,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4917,11 +4928,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4947,9 +4956,11 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4970,7 +4981,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -4998,6 +5009,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5017,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5124,10 +5139,12 @@
       <c r="H26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5"/>
+      <c r="I26" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="J26" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -5314,10 +5331,12 @@
       <c r="H34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5"/>
+      <c r="I34" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="J34" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -5663,10 +5682,12 @@
       <c r="H47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="11" t="b">
+      <c r="I47" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="J47" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -5692,10 +5713,12 @@
       <c r="H48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5"/>
+      <c r="I48" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="J48" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
